--- a/data_GRNN.xlsx
+++ b/data_GRNN.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
-  <si>
-    <t>Date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Incidence_rate</t>
   </si>
@@ -30,33 +27,37 @@
   <si>
     <t>NN</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -71,30 +72,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -382,2060 +391,2054 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="2">
         <v>38384</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>6.701542335520107</v>
       </c>
-      <c r="C2" t="n">
-        <v>7.607164654373822</v>
+      <c r="C2">
+        <v>7.607164654369781</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>7.403790757636867</v>
+      <c r="E2">
+        <v>7.403786969997846</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="2">
         <v>38412</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>10.01123278412358</v>
       </c>
-      <c r="C3" t="n">
-        <v>7.736465190047294</v>
+      <c r="C3">
+        <v>7.736466682258001</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" t="n">
-        <v>7.998857256958066</v>
+      <c r="E3">
+        <v>7.99886267988798</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="2">
         <v>38443</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>10.30279818787532</v>
       </c>
-      <c r="C4" t="n">
-        <v>9.171985144377384</v>
+      <c r="C4">
+        <v>9.171979875630006</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
-        <v>9.715191950718555</v>
+      <c r="E4">
+        <v>9.715132807930118</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="2">
         <v>38473</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>9.333631708597123</v>
       </c>
-      <c r="C5" t="n">
-        <v>9.495358287275113</v>
+      <c r="C5">
+        <v>9.495360089170497</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
-      <c r="E5" t="n">
-        <v>9.281358116220018</v>
+      <c r="E5">
+        <v>9.281360204775662</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="2">
         <v>38504</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>9.282780855858363</v>
       </c>
-      <c r="C6" t="n">
-        <v>9.035321211693573</v>
+      <c r="C6">
+        <v>9.035324115138108</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
-      <c r="E6" t="n">
-        <v>8.781614779869814</v>
+      <c r="E6">
+        <v>8.781630531151672</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="2">
         <v>38534</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>8.066360759783839</v>
       </c>
-      <c r="C7" t="n">
-        <v>9.018017040015149</v>
+      <c r="C7">
+        <v>9.018017632948025</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
-      <c r="E7" t="n">
-        <v>8.746458128115318</v>
+      <c r="E7">
+        <v>8.74646513140565</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="2">
         <v>38565</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>8.229683543996224</v>
       </c>
-      <c r="C8" t="n">
-        <v>8.439348688261687</v>
+      <c r="C8">
+        <v>8.439351070772966</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
-      <c r="E8" t="n">
-        <v>8.105960190421621</v>
+      <c r="E8">
+        <v>8.105959214638057</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="2">
         <v>38596</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>7.365372907808689</v>
       </c>
-      <c r="C9" t="n">
-        <v>7.727534916284532</v>
+      <c r="C9">
+        <v>7.727533756229765</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
-      <c r="E9" t="n">
-        <v>7.970939582267031</v>
+      <c r="E9">
+        <v>7.97093525245347</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="2">
         <v>38626</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>6.908407604831035</v>
       </c>
-      <c r="C10" t="n">
-        <v>7.45985554468102</v>
+      <c r="C10">
+        <v>7.459855351755644</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
-      <c r="E10" t="n">
-        <v>7.363631743179514</v>
+      <c r="E10">
+        <v>7.363631893595307</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="2">
         <v>38657</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>6.875712275914284</v>
       </c>
-      <c r="C11" t="n">
-        <v>6.062352902115489</v>
+      <c r="C11">
+        <v>6.062352439170593</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
-      <c r="E11" t="n">
-        <v>6.208776392439591</v>
+      <c r="E11">
+        <v>6.268669545400739</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="2">
         <v>38687</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>5.016386618057898</v>
       </c>
-      <c r="C12" t="n">
-        <v>4.779777132711613</v>
+      <c r="C12">
+        <v>4.779774771936495</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
-      <c r="E12" t="n">
-        <v>5.042435914972702</v>
+      <c r="E12">
+        <v>5.034996633562516</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="2">
         <v>38718</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>9.287146162197645</v>
       </c>
-      <c r="C13" t="n">
-        <v>10.85091794387407</v>
+      <c r="C13">
+        <v>10.85091702536869</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>9.287146162197645</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="2">
         <v>38749</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>8.050797458297723</v>
       </c>
-      <c r="C14" t="n">
-        <v>8.012896542035259</v>
+      <c r="C14">
+        <v>8.012897710332973</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
-      <c r="E14" t="n">
-        <v>7.943207608072487</v>
+      <c r="E14">
+        <v>7.943212269526379</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="2">
         <v>38777</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>8.992092760017398</v>
       </c>
-      <c r="C15" t="n">
-        <v>10.63413061981455</v>
+      <c r="C15">
+        <v>10.63412925987453</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>8.992092760017398</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="2">
         <v>38808</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>8.56786745626057</v>
       </c>
-      <c r="C16" t="n">
-        <v>9.704256056196913</v>
+      <c r="C16">
+        <v>9.704258245156275</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
-      <c r="E16" t="n">
-        <v>8.587173093409323</v>
+      <c r="E16">
+        <v>8.58717281890514</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="2">
         <v>38838</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>8.350133647031132</v>
       </c>
-      <c r="C17" t="n">
-        <v>8.533513764644889</v>
+      <c r="C17">
+        <v>8.533511156856678</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
-      <c r="E17" t="n">
-        <v>8.223708031969396</v>
+      <c r="E17">
+        <v>8.223705985636309</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="2">
         <v>38869</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>7.728900161828914</v>
       </c>
-      <c r="C18" t="n">
-        <v>8.461197037997136</v>
+      <c r="C18">
+        <v>8.461193888656185</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
-      <c r="E18" t="n">
-        <v>8.107617420121578</v>
+      <c r="E18">
+        <v>8.10761773278151</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="2">
         <v>38899</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>7.359203908293579</v>
       </c>
-      <c r="C19" t="n">
-        <v>7.168996047337084</v>
+      <c r="C19">
+        <v>7.168994256053321</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
-      <c r="E19" t="n">
-        <v>7.290631790281258</v>
+      <c r="E19">
+        <v>7.290631684596142</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="2">
         <v>38930</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>7.217718995376663</v>
       </c>
-      <c r="C20" t="n">
-        <v>7.512491328773493</v>
+      <c r="C20">
+        <v>7.512488272723894</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
-      <c r="E20" t="n">
-        <v>7.381260280632286</v>
+      <c r="E20">
+        <v>7.381260815916892</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="2">
         <v>38961</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>6.348542760078963</v>
       </c>
-      <c r="C21" t="n">
-        <v>6.492686727361354</v>
+      <c r="C21">
+        <v>6.492686085205982</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
-      <c r="E21" t="n">
-        <v>6.498735083910616</v>
+      <c r="E21">
+        <v>6.528032324214479</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="2">
         <v>38991</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>6.188856004311114</v>
       </c>
-      <c r="C22" t="n">
-        <v>6.12287798767721</v>
+      <c r="C22">
+        <v>6.122876508031938</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
-      <c r="E22" t="n">
-        <v>6.143583980200349</v>
+      <c r="E22">
+        <v>6.210013292568125</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="2">
         <v>39022</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>4.900884426779344</v>
       </c>
-      <c r="C23" t="n">
-        <v>5.772231473959791</v>
+      <c r="C23">
+        <v>5.772231157141477</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
-      <c r="E23" t="n">
-        <v>5.621415423505483</v>
+      <c r="E23">
+        <v>5.620558457085198</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="2">
         <v>39052</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>3.242604769061786</v>
       </c>
-      <c r="C24" t="n">
-        <v>3.347396668131764</v>
+      <c r="C24">
+        <v>3.347397665012363</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
-      <c r="E24" t="n">
-        <v>4.073916538156678</v>
+      <c r="E24">
+        <v>4.073915360978639</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="2">
         <v>39083</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>9.945937408994181</v>
       </c>
-      <c r="C25" t="n">
-        <v>8.281316945105258</v>
+      <c r="C25">
+        <v>8.281313619308611</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>9.94593740899418</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="2">
         <v>39114</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>7.552360772700065</v>
       </c>
-      <c r="C26" t="n">
-        <v>7.908827335354595</v>
+      <c r="C26">
+        <v>7.908824242781999</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
-      <c r="E26" t="n">
-        <v>7.848711220613484</v>
+      <c r="E26">
+        <v>7.848717098664046</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="2">
         <v>39142</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>8.712822839573231</v>
       </c>
-      <c r="C27" t="n">
-        <v>9.005109273473071</v>
+      <c r="C27">
+        <v>9.005111385808684</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
-      <c r="E27" t="n">
-        <v>8.72655714961318</v>
+      <c r="E27">
+        <v>8.726564013662159</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="2">
         <v>39173</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>8.668622730693377</v>
       </c>
-      <c r="C28" t="n">
-        <v>8.665629654024308</v>
+      <c r="C28">
+        <v>8.665629055992122</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
       </c>
-      <c r="E28" t="n">
-        <v>8.504877761333974</v>
+      <c r="E28">
+        <v>8.504878887013852</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="2">
         <v>39203</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>8.548955310266505</v>
       </c>
-      <c r="C29" t="n">
-        <v>8.305490720267688</v>
+      <c r="C29">
+        <v>8.305490275655769</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
       </c>
-      <c r="E29" t="n">
-        <v>8.363230161634805</v>
+      <c r="E29">
+        <v>8.363230562298046</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="2">
         <v>39234</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>8.119658899923955</v>
       </c>
-      <c r="C30" t="n">
-        <v>8.047677158556874</v>
+      <c r="C30">
+        <v>8.047676138707203</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
       </c>
-      <c r="E30" t="n">
-        <v>7.959898708084094</v>
+      <c r="E30">
+        <v>7.95990148861683</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="2">
         <v>39264</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>7.597549868525597</v>
       </c>
-      <c r="C31" t="n">
-        <v>7.494022030951731</v>
+      <c r="C31">
+        <v>7.494022327690777</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
       </c>
-      <c r="E31" t="n">
-        <v>7.37999973075366</v>
+      <c r="E31">
+        <v>7.380000157475993</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="2">
         <v>39295</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>7.460004607157648</v>
       </c>
-      <c r="C32" t="n">
-        <v>7.517393911990736</v>
+      <c r="C32">
+        <v>7.517393691797646</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
       </c>
-      <c r="E32" t="n">
-        <v>7.380712570762516</v>
+      <c r="E32">
+        <v>7.380712864176343</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="2">
         <v>39326</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>6.657175435024927</v>
       </c>
-      <c r="C33" t="n">
-        <v>6.623108274317921</v>
+      <c r="C33">
+        <v>6.623108450788184</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
-      <c r="E33" t="n">
-        <v>6.561334479342256</v>
+      <c r="E33">
+        <v>6.566276373269312</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="2">
         <v>39356</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>6.435414131436669</v>
       </c>
-      <c r="C34" t="n">
-        <v>6.428129206476748</v>
+      <c r="C34">
+        <v>6.428129110220813</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
-      <c r="E34" t="n">
-        <v>6.492653262221296</v>
+      <c r="E34">
+        <v>6.52719407176993</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="2">
         <v>39387</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>5.396521382962828</v>
       </c>
-      <c r="C35" t="n">
-        <v>5.497686979167399</v>
+      <c r="C35">
+        <v>5.49768643591498</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
-      <c r="E35" t="n">
-        <v>5.475988193788751</v>
+      <c r="E35">
+        <v>5.444649165883511</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="2">
         <v>39417</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>3.454227097572843</v>
       </c>
-      <c r="C36" t="n">
-        <v>3.689142367651748</v>
+      <c r="C36">
+        <v>3.689142584092884</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
       </c>
-      <c r="E36" t="n">
-        <v>3.455142358842841</v>
+      <c r="E36">
+        <v>3.455141526425649</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="2">
         <v>39448</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>9.432070173845258</v>
       </c>
-      <c r="C37" t="n">
-        <v>9.511700644939044</v>
+      <c r="C37">
+        <v>9.511701959093118</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
       </c>
-      <c r="E37" t="n">
-        <v>8.55809741928892</v>
+      <c r="E37">
+        <v>8.558101629901786</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="2">
         <v>39479</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>8.374088958517811</v>
       </c>
-      <c r="C38" t="n">
-        <v>7.49186914543172</v>
+      <c r="C38">
+        <v>7.49186820731792</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
       </c>
-      <c r="E38" t="n">
-        <v>7.379494522426415</v>
+      <c r="E38">
+        <v>7.379494647965291</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="2">
         <v>39508</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>9.177546185924362</v>
       </c>
-      <c r="C39" t="n">
-        <v>9.380083278415652</v>
+      <c r="C39">
+        <v>9.380081072083605</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
       </c>
-      <c r="E39" t="n">
-        <v>9.237248736905885</v>
+      <c r="E39">
+        <v>9.237244715134105</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="2">
         <v>39539</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>8.723444512559695</v>
       </c>
-      <c r="C40" t="n">
-        <v>9.024533948186782</v>
+      <c r="C40">
+        <v>9.02453545759219</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
       </c>
-      <c r="E40" t="n">
-        <v>8.758404794157999</v>
+      <c r="E40">
+        <v>8.75841477871854</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="2">
         <v>39569</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>8.388241794004344</v>
       </c>
-      <c r="C41" t="n">
-        <v>8.624024988033346</v>
+      <c r="C41">
+        <v>8.624025522195522</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
       </c>
-      <c r="E41" t="n">
-        <v>8.44464639926119</v>
+      <c r="E41">
+        <v>8.444650695556607</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="2">
         <v>39600</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>7.715490164914591</v>
       </c>
-      <c r="C42" t="n">
-        <v>8.092964418767002</v>
+      <c r="C42">
+        <v>8.092964124751997</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
       </c>
-      <c r="E42" t="n">
-        <v>7.968209933652643</v>
+      <c r="E42">
+        <v>7.968212234741332</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="2">
         <v>39630</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>7.484201045947521</v>
       </c>
-      <c r="C43" t="n">
-        <v>7.344685978508872</v>
+      <c r="C43">
+        <v>7.344685947591531</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
       </c>
-      <c r="E43" t="n">
-        <v>7.265557067222041</v>
+      <c r="E43">
+        <v>7.265556998237006</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="2">
         <v>39661</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>7.216735160335733</v>
       </c>
-      <c r="C44" t="n">
-        <v>7.389503950812552</v>
+      <c r="C44">
+        <v>7.389502567280282</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
-      <c r="E44" t="n">
-        <v>7.299339302331841</v>
+      <c r="E44">
+        <v>7.299338200820288</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="2">
         <v>39692</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>6.646232091365257</v>
       </c>
-      <c r="C45" t="n">
-        <v>6.441486390814027</v>
+      <c r="C45">
+        <v>6.441486436840299</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
       </c>
-      <c r="E45" t="n">
-        <v>6.491480822973872</v>
+      <c r="E45">
+        <v>6.525382550978789</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="2">
         <v>39722</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>6.56055824232379</v>
       </c>
-      <c r="C46" t="n">
-        <v>6.371353751339524</v>
+      <c r="C46">
+        <v>6.371352931007951</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
       </c>
-      <c r="E46" t="n">
-        <v>6.504232700644677</v>
+      <c r="E46">
+        <v>6.54508236380819</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="2">
         <v>39753</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>5.263946597643212</v>
       </c>
-      <c r="C47" t="n">
-        <v>5.470117604370081</v>
+      <c r="C47">
+        <v>5.470117214621647</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
       </c>
-      <c r="E47" t="n">
-        <v>5.483579080693606</v>
+      <c r="E47">
+        <v>5.451401642926516</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="2">
         <v>39783</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>3.53245691710374</v>
       </c>
-      <c r="C48" t="n">
-        <v>3.455042448132343</v>
+      <c r="C48">
+        <v>3.455042803882852</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
       </c>
-      <c r="E48" t="n">
-        <v>3.798540171190281</v>
+      <c r="E48">
+        <v>3.798535368068904</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="2">
         <v>39814</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>7.729552271599488</v>
       </c>
-      <c r="C49" t="n">
-        <v>9.501215095862083</v>
+      <c r="C49">
+        <v>9.501215123330271</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
       </c>
-      <c r="E49" t="n">
-        <v>8.540071854422498</v>
+      <c r="E49">
+        <v>8.540073714705358</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="2">
         <v>39845</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>6.92052831050777</v>
       </c>
-      <c r="C50" t="n">
-        <v>6.916805712141588</v>
+      <c r="C50">
+        <v>6.916808805781374</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
       </c>
-      <c r="E50" t="n">
-        <v>6.824463920878033</v>
+      <c r="E50">
+        <v>6.824462678494116</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="2">
         <v>39873</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>8.12111263996108</v>
       </c>
-      <c r="C51" t="n">
-        <v>8.174133678162063</v>
+      <c r="C51">
+        <v>8.174129471820654</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
       </c>
-      <c r="E51" t="n">
-        <v>8.055986230304161</v>
+      <c r="E51">
+        <v>8.055977470573415</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="2">
         <v>39904</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>7.965919193962379</v>
       </c>
-      <c r="C52" t="n">
-        <v>7.829965346670389</v>
+      <c r="C52">
+        <v>7.829963885035284</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
       </c>
-      <c r="E52" t="n">
-        <v>8.003289972072906</v>
+      <c r="E52">
+        <v>8.003303649012286</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="2">
         <v>39934</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>7.356063920239201</v>
       </c>
-      <c r="C53" t="n">
-        <v>7.62902326115189</v>
+      <c r="C53">
+        <v>7.629021926863352</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
       </c>
-      <c r="E53" t="n">
-        <v>7.472776459263496</v>
+      <c r="E53">
+        <v>7.472765719051452</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="2">
         <v>39965</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>7.030842914286564</v>
       </c>
-      <c r="C54" t="n">
-        <v>6.870258216416976</v>
+      <c r="C54">
+        <v>6.870257811691212</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
       </c>
-      <c r="E54" t="n">
-        <v>6.833286325051751</v>
+      <c r="E54">
+        <v>6.833285082765256</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="2">
         <v>39995</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>6.806147502903682</v>
       </c>
-      <c r="C55" t="n">
-        <v>6.647592265455991</v>
+      <c r="C55">
+        <v>6.64759148613263</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
       </c>
-      <c r="E55" t="n">
-        <v>6.574633475527036</v>
+      <c r="E55">
+        <v>6.577321170998498</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="2">
         <v>40026</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>6.65170705761337</v>
       </c>
-      <c r="C56" t="n">
-        <v>6.531732413172799</v>
+      <c r="C56">
+        <v>6.531731985381824</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
       </c>
-      <c r="E56" t="n">
-        <v>6.515426852384375</v>
+      <c r="E56">
+        <v>6.537903763053871</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="2">
         <v>40057</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>6.027092970005793</v>
       </c>
-      <c r="C57" t="n">
-        <v>5.911687712821521</v>
+      <c r="C57">
+        <v>5.911687996356909</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
       </c>
-      <c r="E57" t="n">
-        <v>6.095773185841663</v>
+      <c r="E57">
+        <v>6.093045933797212</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="2">
         <v>40087</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>5.984397829840212</v>
       </c>
-      <c r="C58" t="n">
-        <v>5.825747997391169</v>
+      <c r="C58">
+        <v>5.825748375725089</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
       </c>
-      <c r="E58" t="n">
-        <v>5.768187637283157</v>
+      <c r="E58">
+        <v>5.763118250402859</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="2">
         <v>40118</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>5.389677870355626</v>
       </c>
-      <c r="C59" t="n">
-        <v>4.740865091937491</v>
+      <c r="C59">
+        <v>4.740864851913093</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
       </c>
-      <c r="E59" t="n">
-        <v>5.035358330042527</v>
+      <c r="E59">
+        <v>5.037460480789483</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="2">
         <v>40148</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>5.110465207685476</v>
       </c>
-      <c r="C60" t="n">
-        <v>3.3455375462055</v>
+      <c r="C60">
+        <v>3.345537224428204</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
       </c>
-      <c r="E60" t="n">
-        <v>4.077030215756016</v>
+      <c r="E60">
+        <v>4.077031409156485</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="2">
         <v>40179</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>7.193685645458249</v>
       </c>
-      <c r="C61" t="n">
-        <v>9.314910637435297</v>
+      <c r="C61">
+        <v>9.314908130163792</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
       </c>
-      <c r="E61" t="n">
-        <v>7.299943198594035</v>
+      <c r="E61">
+        <v>7.299931944475161</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="2">
         <v>40210</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>6.13804934413133</v>
       </c>
-      <c r="C62" t="n">
-        <v>6.658607378345621</v>
+      <c r="C62">
+        <v>6.658614425834283</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
       </c>
-      <c r="E62" t="n">
-        <v>6.582118378556878</v>
+      <c r="E62">
+        <v>6.584128689341802</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="2">
         <v>40238</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>7.258941800068309</v>
       </c>
-      <c r="C63" t="n">
-        <v>7.736290484566915</v>
+      <c r="C63">
+        <v>7.736287901372746</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
       </c>
-      <c r="E63" t="n">
-        <v>7.99836039106261</v>
+      <c r="E63">
+        <v>7.99835418549115</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="2">
         <v>40269</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>7.078756895547994</v>
       </c>
-      <c r="C64" t="n">
-        <v>7.283436649545711</v>
+      <c r="C64">
+        <v>7.283435931772301</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
       </c>
-      <c r="E64" t="n">
-        <v>7.241826016406979</v>
+      <c r="E64">
+        <v>7.241825194985565</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="2">
         <v>40299</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>6.942175988712013</v>
       </c>
-      <c r="C65" t="n">
-        <v>6.73976318726955</v>
+      <c r="C65">
+        <v>6.739761288038238</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
       </c>
-      <c r="E65" t="n">
-        <v>6.698255706023419</v>
+      <c r="E65">
+        <v>6.698403270040283</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="2">
         <v>40330</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>6.50276456874875</v>
       </c>
-      <c r="C66" t="n">
-        <v>6.468424937498965</v>
+      <c r="C66">
+        <v>6.468423514376709</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
       </c>
-      <c r="E66" t="n">
-        <v>6.492954065856658</v>
+      <c r="E66">
+        <v>6.524988967243515</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="2">
         <v>40360</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>6.135127426760731</v>
       </c>
-      <c r="C67" t="n">
-        <v>6.181578702045226</v>
+      <c r="C67">
+        <v>6.181578726804872</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
       </c>
-      <c r="E67" t="n">
-        <v>6.105612718564749</v>
+      <c r="E67">
+        <v>6.20722831666327</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="2">
         <v>40391</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>6.054662317631908</v>
       </c>
-      <c r="C68" t="n">
-        <v>5.976249125438057</v>
+      <c r="C68">
+        <v>5.976249009718212</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
       </c>
-      <c r="E68" t="n">
-        <v>6.200762208495854</v>
+      <c r="E68">
+        <v>6.234235612812635</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="2">
         <v>40422</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>5.5789142329317</v>
       </c>
-      <c r="C69" t="n">
-        <v>5.386435390180169</v>
+      <c r="C69">
+        <v>5.386435322824605</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
       </c>
-      <c r="E69" t="n">
-        <v>5.511635763844148</v>
+      <c r="E69">
+        <v>5.504887354145813</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="2">
         <v>40452</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>5.637277659385474</v>
       </c>
-      <c r="C70" t="n">
-        <v>5.413162981753453</v>
+      <c r="C70">
+        <v>5.413163095200875</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
       </c>
-      <c r="E70" t="n">
-        <v>5.507876578732605</v>
+      <c r="E70">
+        <v>5.490024336926037</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="2">
         <v>40483</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>5.139577733926657</v>
       </c>
-      <c r="C71" t="n">
-        <v>4.693951291835409</v>
+      <c r="C71">
+        <v>4.693951998125756</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
       </c>
-      <c r="E71" t="n">
-        <v>5.019850698787168</v>
+      <c r="E71">
+        <v>5.042008586346704</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="2">
         <v>40513</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>4.612958318594726</v>
       </c>
-      <c r="C72" t="n">
-        <v>4.036861777492152</v>
+      <c r="C72">
+        <v>4.036863892392223</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
       </c>
-      <c r="E72" t="n">
-        <v>4.432616696616326</v>
+      <c r="E72">
+        <v>4.423244676247092</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="2">
         <v>40544</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>6.74691070018692</v>
       </c>
-      <c r="C73" t="n">
-        <v>7.620320047241184</v>
+      <c r="C73">
+        <v>7.620317192714377</v>
       </c>
       <c r="D73" t="b">
         <v>1</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>6.74691070018692</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="2">
         <v>40575</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>6.420938038857009</v>
       </c>
-      <c r="C74" t="n">
-        <v>5.925544103715498</v>
+      <c r="C74">
+        <v>5.925546294471952</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
       </c>
-      <c r="E74" t="n">
-        <v>6.128243323778508</v>
+      <c r="E74">
+        <v>6.130972629112044</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="2">
         <v>40603</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>7.024110513081745</v>
       </c>
-      <c r="C75" t="n">
-        <v>7.477995806103977</v>
+      <c r="C75">
+        <v>7.477993377618752</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
       </c>
-      <c r="E75" t="n">
-        <v>7.374464031823115</v>
+      <c r="E75">
+        <v>7.374463230419799</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="2">
         <v>40634</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>6.642951448323755</v>
       </c>
-      <c r="C76" t="n">
-        <v>6.927778827339299</v>
+      <c r="C76">
+        <v>6.92778006321386</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
       </c>
-      <c r="E76" t="n">
-        <v>6.82217355827536</v>
+      <c r="E76">
+        <v>6.822172843721608</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="2">
         <v>40664</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>6.546673547208011</v>
       </c>
-      <c r="C77" t="n">
-        <v>6.528591627218526</v>
+      <c r="C77">
+        <v>6.528591225648753</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
       </c>
-      <c r="E77" t="n">
-        <v>6.513839857199676</v>
+      <c r="E77">
+        <v>6.536963105499443</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="2">
         <v>40695</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>6.058572181752906</v>
       </c>
-      <c r="C78" t="n">
-        <v>6.143879694135924</v>
+      <c r="C78">
+        <v>6.143879016259055</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
       </c>
-      <c r="E78" t="n">
-        <v>6.121798117950591</v>
+      <c r="E78">
+        <v>6.198123816465246</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="2">
         <v>40725</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>5.766382548467481</v>
       </c>
-      <c r="C79" t="n">
-        <v>5.755831251932397</v>
+      <c r="C79">
+        <v>5.755831136885041</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
       </c>
-      <c r="E79" t="n">
-        <v>5.604119153614146</v>
+      <c r="E79">
+        <v>5.60369821550505</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="2">
         <v>40756</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>5.707169029113569</v>
       </c>
-      <c r="C80" t="n">
-        <v>5.655376738077792</v>
+      <c r="C80">
+        <v>5.655376455285908</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
       </c>
-      <c r="E80" t="n">
-        <v>5.62270930045062</v>
+      <c r="E80">
+        <v>5.622883971386378</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="2" t="n">
+      <c r="A81" s="2">
         <v>40787</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>5.289094735035445</v>
       </c>
-      <c r="C81" t="n">
-        <v>5.139902998833823</v>
+      <c r="C81">
+        <v>5.139903120495931</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
       </c>
-      <c r="E81" t="n">
-        <v>5.262540738073382</v>
+      <c r="E81">
+        <v>5.260092594958567</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="2">
         <v>40817</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>5.49798272963281</v>
       </c>
-      <c r="C82" t="n">
-        <v>5.225946800704712</v>
+      <c r="C82">
+        <v>5.225947005472834</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
       </c>
-      <c r="E82" t="n">
-        <v>5.346143939114594</v>
+      <c r="E82">
+        <v>5.335183583387068</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="2">
         <v>40848</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>4.990491546757028</v>
       </c>
-      <c r="C83" t="n">
-        <v>4.739227139036705</v>
+      <c r="C83">
+        <v>4.739227867547851</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
       </c>
-      <c r="E83" t="n">
-        <v>5.035029070388275</v>
+      <c r="E83">
+        <v>5.037588128267158</v>
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="2">
         <v>40878</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>4.400369911180825</v>
       </c>
-      <c r="C84" t="n">
-        <v>4.175244535309612</v>
+      <c r="C84">
+        <v>4.175246418616537</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
       </c>
-      <c r="E84" t="n">
-        <v>4.418860564814532</v>
+      <c r="E84">
+        <v>4.401466141572326</v>
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="2">
         <v>40909</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>6.976212586117082</v>
       </c>
-      <c r="C85" t="n">
-        <v>6.897115370228465</v>
+      <c r="C85">
+        <v>6.897113429019904</v>
       </c>
       <c r="D85" t="b">
         <v>1</v>
       </c>
-      <c r="E85" t="n">
-        <v>6.890168029537275</v>
+      <c r="E85">
+        <v>6.976212586117082</v>
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="2" t="n">
+      <c r="A86" s="2">
         <v>40940</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>6.733662394281107</v>
       </c>
-      <c r="C86" t="n">
-        <v>6.281873088493503</v>
+      <c r="C86">
+        <v>6.281874161830627</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
       </c>
-      <c r="E86" t="n">
-        <v>6.34553377638704</v>
+      <c r="E86">
+        <v>6.471441563136092</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="2">
         <v>40969</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>7.136824157455224</v>
       </c>
-      <c r="C87" t="n">
-        <v>7.377859228381117</v>
+      <c r="C87">
+        <v>7.377858370778949</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
       </c>
-      <c r="E87" t="n">
-        <v>7.289221235282067</v>
+      <c r="E87">
+        <v>7.289220636748902</v>
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="2">
         <v>41000</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>6.699001764052404</v>
       </c>
-      <c r="C88" t="n">
-        <v>6.861040366598969</v>
+      <c r="C88">
+        <v>6.861041416376309</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
       </c>
-      <c r="E88" t="n">
-        <v>6.834168047869541</v>
+      <c r="E88">
+        <v>6.834166447487721</v>
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="2" t="n">
+      <c r="A89" s="2">
         <v>41030</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>6.536237819530895</v>
       </c>
-      <c r="C89" t="n">
-        <v>6.61767438614613</v>
+      <c r="C89">
+        <v>6.617674575132006</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
       </c>
-      <c r="E89" t="n">
-        <v>6.558733977497545</v>
+      <c r="E89">
+        <v>6.564339138508951</v>
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="2" t="n">
+      <c r="A90" s="2">
         <v>41061</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>5.900619752553144</v>
       </c>
-      <c r="C90" t="n">
-        <v>6.122206322800511</v>
+      <c r="C90">
+        <v>6.122206177735984</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
       </c>
-      <c r="E90" t="n">
-        <v>6.144357775113164</v>
+      <c r="E90">
+        <v>6.210534392587286</v>
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="2">
         <v>41091</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>5.741121477689157</v>
       </c>
-      <c r="C91" t="n">
-        <v>5.684079142457044</v>
+      <c r="C91">
+        <v>5.684079241372639</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
       </c>
-      <c r="E91" t="n">
-        <v>5.613571923373382</v>
+      <c r="E91">
+        <v>5.613596600161656</v>
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="2" t="n">
+      <c r="A92" s="2">
         <v>41122</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>5.609455614679053</v>
       </c>
-      <c r="C92" t="n">
-        <v>5.665690966821809</v>
+      <c r="C92">
+        <v>5.665690464002554</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
       </c>
-      <c r="E92" t="n">
-        <v>5.620551232045109</v>
+      <c r="E92">
+        <v>5.620654665103185</v>
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="2" t="n">
+      <c r="A93" s="2">
         <v>41153</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>5.066018495761364</v>
       </c>
-      <c r="C93" t="n">
-        <v>5.150513276968172</v>
+      <c r="C93">
+        <v>5.150513583636</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
       </c>
-      <c r="E93" t="n">
-        <v>5.270393069700562</v>
+      <c r="E93">
+        <v>5.267530468023159</v>
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="2">
         <v>41183</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>5.320443849988329</v>
       </c>
-      <c r="C94" t="n">
-        <v>5.225345236151118</v>
+      <c r="C94">
+        <v>5.225345595729286</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
       </c>
-      <c r="E94" t="n">
-        <v>5.345394728683696</v>
+      <c r="E94">
+        <v>5.334514821230014</v>
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="2">
         <v>41214</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>4.664489567416008</v>
       </c>
-      <c r="C95" t="n">
-        <v>4.734251789197909</v>
+      <c r="C95">
+        <v>4.734252040279052</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
       </c>
-      <c r="E95" t="n">
-        <v>5.0339793142826</v>
+      <c r="E95">
+        <v>5.037989144150247</v>
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="2">
         <v>41244</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>4.236612622515642</v>
       </c>
-      <c r="C96" t="n">
-        <v>4.046828321363011</v>
+      <c r="C96">
+        <v>4.046829404528316</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
       </c>
-      <c r="E96" t="n">
-        <v>4.431727531405125</v>
+      <c r="E96">
+        <v>4.421349073092731</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="2">
         <v>41275</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>6.5388762518094</v>
       </c>
-      <c r="C97" t="n">
-        <v>6.767596993617576</v>
+      <c r="C97">
+        <v>6.76759568714756</v>
       </c>
       <c r="D97" t="b">
         <v>1</v>
       </c>
-      <c r="E97" t="n">
-        <v>6.624920808389206</v>
+      <c r="E97">
+        <v>6.976212586117082</v>
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="2">
         <v>41306</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>5.653968863549083</v>
       </c>
-      <c r="C98" t="n">
-        <v>6.190568285892767</v>
+      <c r="C98">
+        <v>6.190569610880559</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
       </c>
-      <c r="E98" t="n">
-        <v>6.108549263123358</v>
+      <c r="E98">
+        <v>6.217041180422414</v>
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="2" t="n">
+      <c r="A99" s="2">
         <v>41334</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>6.296342796372338</v>
       </c>
-      <c r="C99" t="n">
-        <v>6.459180369423161</v>
+      <c r="C99">
+        <v>6.459179994496139</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
       </c>
-      <c r="E99" t="n">
-        <v>6.491853921487555</v>
+      <c r="E99">
+        <v>6.524648425430563</v>
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="2" t="n">
+      <c r="A100" s="2">
         <v>41365</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>6.232829163097102</v>
       </c>
-      <c r="C100" t="n">
-        <v>6.045777702934128</v>
+      <c r="C100">
+        <v>6.045776360139788</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
       </c>
-      <c r="E100" t="n">
-        <v>6.218605292633756</v>
+      <c r="E100">
+        <v>6.279140944175409</v>
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="2" t="n">
+      <c r="A101" s="2">
         <v>41395</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>6.045020826563469</v>
       </c>
-      <c r="C101" t="n">
-        <v>6.018887007215311</v>
+      <c r="C101">
+        <v>6.018885980653883</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
       </c>
-      <c r="E101" t="n">
-        <v>6.222756974622894</v>
+      <c r="E101">
+        <v>6.279346711176037</v>
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="2" t="n">
+      <c r="A102" s="2">
         <v>41426</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>5.595772650734099</v>
       </c>
-      <c r="C102" t="n">
-        <v>5.446087321781988</v>
+      <c r="C102">
+        <v>5.446086979944084</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
       </c>
-      <c r="E102" t="n">
-        <v>5.494572531788988</v>
+      <c r="E102">
+        <v>5.466261779468899</v>
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="2" t="n">
+      <c r="A103" s="2">
         <v>41456</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>5.524578299016277</v>
       </c>
-      <c r="C103" t="n">
-        <v>5.315421523316624</v>
+      <c r="C103">
+        <v>5.315421348530996</v>
       </c>
       <c r="D103" t="b">
         <v>0</v>
       </c>
-      <c r="E103" t="n">
-        <v>5.467305313456771</v>
+      <c r="E103">
+        <v>5.469129627625576</v>
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="2" t="n">
+      <c r="A104" s="2">
         <v>41487</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>5.464757318838439</v>
       </c>
-      <c r="C104" t="n">
-        <v>5.316159234284219</v>
+      <c r="C104">
+        <v>5.316159232059717</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
       </c>
-      <c r="E104" t="n">
-        <v>5.468171908913683</v>
+      <c r="E104">
+        <v>5.470217933828765</v>
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="2" t="n">
+      <c r="A105" s="2">
         <v>41518</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>5.119715813417624</v>
       </c>
-      <c r="C105" t="n">
-        <v>4.868834106646648</v>
+      <c r="C105">
+        <v>4.868834452805313</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
       </c>
-      <c r="E105" t="n">
-        <v>5.070224191568529</v>
+      <c r="E105">
+        <v>5.03262953887331</v>
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="2" t="n">
+      <c r="A106" s="2">
         <v>41548</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>5.223405512392544</v>
       </c>
-      <c r="C106" t="n">
-        <v>5.206368632646274</v>
+      <c r="C106">
+        <v>5.206369132961983</v>
       </c>
       <c r="D106" t="b">
         <v>0</v>
       </c>
-      <c r="E106" t="n">
-        <v>5.322950273426977</v>
+      <c r="E106">
+        <v>5.314763487905436</v>
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="2" t="n">
+      <c r="A107" s="2">
         <v>41579</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>4.63930164544622</v>
       </c>
-      <c r="C107" t="n">
-        <v>4.566858729282608</v>
+      <c r="C107">
+        <v>4.566859622651842</v>
       </c>
       <c r="D107" t="b">
         <v>0</v>
       </c>
-      <c r="E107" t="n">
-        <v>4.787846013871697</v>
+      <c r="E107">
+        <v>5.063911271932032</v>
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="2" t="n">
+      <c r="A108" s="2">
         <v>41609</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>4.460651088594133</v>
       </c>
-      <c r="C108" t="n">
-        <v>4.097730268518195</v>
+      <c r="C108">
+        <v>4.097731117933874</v>
       </c>
       <c r="D108" t="b">
         <v>0</v>
       </c>
-      <c r="E108" t="n">
-        <v>4.427207091488474</v>
+      <c r="E108">
+        <v>4.411593184728817</v>
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="2" t="n">
+      <c r="A109" s="2">
         <v>41640</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>6.576893827085427</v>
       </c>
-      <c r="C109" t="n">
-        <v>6.741081517294851</v>
+      <c r="C109">
+        <v>6.741080791290549</v>
       </c>
       <c r="D109" t="b">
         <v>1</v>
       </c>
-      <c r="E109" t="n">
-        <v>6.591805655407832</v>
+      <c r="E109">
+        <v>6.976212586117082</v>
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="2" t="n">
+      <c r="A110" s="2">
         <v>41671</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>5.693239940771945</v>
       </c>
-      <c r="C110" t="n">
-        <v>6.007862799388183</v>
+      <c r="C110">
+        <v>6.00786290834963</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
       </c>
-      <c r="E110" t="n">
-        <v>6.220252970213524</v>
+      <c r="E110">
+        <v>6.272586382929839</v>
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="2" t="n">
+      <c r="A111" s="2">
         <v>41699</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>6.233394132656261</v>
       </c>
-      <c r="C111" t="n">
-        <v>6.623226709294801</v>
+      <c r="C111">
+        <v>6.623226575048704</v>
       </c>
       <c r="D111" t="b">
         <v>0</v>
       </c>
-      <c r="E111" t="n">
-        <v>6.561391973684593</v>
+      <c r="E111">
+        <v>6.566320005658323</v>
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="2" t="n">
+      <c r="A112" s="2">
         <v>41730</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>6.017184872789998</v>
       </c>
-      <c r="C112" t="n">
-        <v>6.42648712103304</v>
+      <c r="C112">
+        <v>6.426487262366442</v>
       </c>
       <c r="D112" t="b">
         <v>0</v>
       </c>
-      <c r="E112" t="n">
-        <v>6.492877692021531</v>
+      <c r="E112">
+        <v>6.527492438470405</v>
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="2" t="n">
+      <c r="A113" s="2">
         <v>41760</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>5.868642470021811</v>
       </c>
-      <c r="C113" t="n">
-        <v>6.247384801018677</v>
+      <c r="C113">
+        <v>6.247384979532944</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
       </c>
-      <c r="E113" t="n">
-        <v>6.215625181533929</v>
+      <c r="E113">
+        <v>6.357576308924057</v>
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="2" t="n">
+      <c r="A114" s="2">
         <v>41791</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>5.635165985988754</v>
       </c>
-      <c r="C114" t="n">
-        <v>5.749932685269217</v>
+      <c r="C114">
+        <v>5.74993290725239</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
       </c>
-      <c r="E114" t="n">
-        <v>5.60058483477348</v>
+      <c r="E114">
+        <v>5.600263632410927</v>
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="2" t="n">
+      <c r="A115" s="2">
         <v>41821</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>5.505366638512728</v>
       </c>
-      <c r="C115" t="n">
-        <v>5.615642173232568</v>
+      <c r="C115">
+        <v>5.615642658094219</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
       </c>
-      <c r="E115" t="n">
-        <v>5.608912117530635</v>
+      <c r="E115">
+        <v>5.609315104353528</v>
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="2" t="n">
+      <c r="A116" s="2">
         <v>41852</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>5.249826479155435</v>
       </c>
-      <c r="C116" t="n">
-        <v>5.534095968864276</v>
+      <c r="C116">
+        <v>5.534096509268372</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
       </c>
-      <c r="E116" t="n">
-        <v>5.489359849982904</v>
+      <c r="E116">
+        <v>5.469181456604969</v>
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="2" t="n">
+      <c r="A117" s="2">
         <v>41883</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>4.950454135374742</v>
       </c>
-      <c r="C117" t="n">
-        <v>5.118535565672854</v>
+      <c r="C117">
+        <v>5.118536316711833</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
       </c>
-      <c r="E117" t="n">
-        <v>5.248553366885041</v>
+      <c r="E117">
+        <v>5.246645111271745</v>
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="2" t="n">
+      <c r="A118" s="2">
         <v>41913</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>5.051474775906112</v>
       </c>
-      <c r="C118" t="n">
-        <v>5.261911682060131</v>
+      <c r="C118">
+        <v>5.261912448891262</v>
       </c>
       <c r="D118" t="b">
         <v>0</v>
       </c>
-      <c r="E118" t="n">
-        <v>5.394434090596712</v>
+      <c r="E118">
+        <v>5.381625283035004</v>
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="2" t="n">
+      <c r="A119" s="2">
         <v>41944</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>4.423730006731266</v>
       </c>
-      <c r="C119" t="n">
-        <v>4.664096399971617</v>
+      <c r="C119">
+        <v>4.664097230020006</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
       </c>
-      <c r="E119" t="n">
-        <v>4.995852180713018</v>
+      <c r="E119">
+        <v>5.045931256188912</v>
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="2" t="n">
+      <c r="A120" s="2">
         <v>41974</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>4.423434840506192</v>
       </c>
-      <c r="C120" t="n">
-        <v>4.345622524868134</v>
+      <c r="C120">
+        <v>4.345623958694674</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
       </c>
-      <c r="E120" t="n">
-        <v>4.439174800194548</v>
+      <c r="E120">
+        <v>4.400509778291309</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>